--- a/data/case1/5/P2_3.xlsx
+++ b/data/case1/5/P2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.38305501292357746</v>
+        <v>0.3879292809067465</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999996015363024</v>
+        <v>-0.0099999996375963462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995952698697</v>
+        <v>-0.0089999996319587439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999897447822</v>
+        <v>-0.011999999898247182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999996044135528</v>
+        <v>-0.0059999996389192845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.039786035290717336</v>
+        <v>-0.0059999996286599355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999524470624</v>
+        <v>-0.019999999555022185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999523230727</v>
+        <v>-0.019999999554380921</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999999595120542</v>
+        <v>-0.0059999996281314694</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995952182417</v>
+        <v>0.052184568322303448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999996029631006</v>
+        <v>-0.0044999996371295481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995954904684</v>
+        <v>-0.0059999996283166546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995977202403</v>
+        <v>-0.0059999996246933307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999567803954</v>
+        <v>-0.011999999592353205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999996004078682</v>
+        <v>-0.0059999996232198427</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999996028907709</v>
+        <v>-0.0059999996229911368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.056859797110816679</v>
+        <v>-0.0059999996231008268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995926710596</v>
+        <v>0.0066422995748594005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999996053600206</v>
+        <v>-0.0089999996415905947</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995915102105</v>
+        <v>-0.085691840534604324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995883824901</v>
+        <v>-0.0089999996274503502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.08010057819836458</v>
+        <v>-0.0089999996270750948</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995904914698</v>
+        <v>-0.0089999996286298511</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.077189458955515988</v>
+        <v>-0.041999999450220038</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999407869915</v>
+        <v>-0.041999999447278391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995960389185</v>
+        <v>-0.0059999996272601663</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995945498874</v>
+        <v>-0.0059999996252790844</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995859572053</v>
+        <v>-0.0059999996170194692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999549415108</v>
+        <v>-0.011999999580252663</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999505468935</v>
+        <v>-0.019999999535726065</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999527546493</v>
+        <v>-0.014999999557931076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999495986188</v>
+        <v>-0.02099999952585474</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995732784583</v>
+        <v>-0.0059999996041142367</v>
       </c>
     </row>
   </sheetData>
